--- a/root/img/Yacht.xlsx
+++ b/root/img/Yacht.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Web\ТР\root\img\Californian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Web\ТР\root\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="90">
   <si>
     <t>Ширина</t>
   </si>
@@ -261,13 +261,46 @@
   </si>
   <si>
     <t>36 Kts. (41 MPH)</t>
+  </si>
+  <si>
+    <t>Ціна</t>
+  </si>
+  <si>
+    <t>11200 грн/час</t>
+  </si>
+  <si>
+    <t>9800 грн/час</t>
+  </si>
+  <si>
+    <t>19600 грн/час</t>
+  </si>
+  <si>
+    <t>7000 грн/час</t>
+  </si>
+  <si>
+    <t>15400 грн/час</t>
+  </si>
+  <si>
+    <t>Додаткові опції</t>
+  </si>
+  <si>
+    <t>50$ подача яхты к речвокзалу или к Оболонской набережной</t>
+  </si>
+  <si>
+    <t>150$ подача яхты к ресторану "Маячок"</t>
+  </si>
+  <si>
+    <t>400$ к ресторану "Маячок"</t>
+  </si>
+  <si>
+    <t>250 грн. - посадка/высадка  яхт-клуб "Ривьера"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +337,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF232222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -325,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -339,6 +379,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -619,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,7 +671,7 @@
     <col min="2" max="2" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -691,8 +732,11 @@
       <c r="T1" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -753,8 +797,11 @@
       <c r="T2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="U2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -815,8 +862,11 @@
       <c r="T3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
@@ -877,8 +927,11 @@
       <c r="T4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
@@ -939,8 +992,11 @@
       <c r="T5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>55</v>
       </c>
@@ -1001,8 +1057,11 @@
       <c r="T6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>63</v>
       </c>
@@ -1063,8 +1122,11 @@
       <c r="T7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>73</v>
       </c>
@@ -1125,29 +1187,45 @@
       <c r="T8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27">
